--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE3F5B-D5BC-40FD-8D78-A238CD94351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9543D-A0BA-4EA8-AD19-AC049684DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="instalable_capacity" sheetId="3" r:id="rId3"/>
     <sheet name="eu_primary_cost" sheetId="4" r:id="rId4"/>
     <sheet name="eu_secondary_cost" sheetId="5" r:id="rId5"/>
+    <sheet name="dcr" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Value</t>
   </si>
@@ -256,12 +257,15 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{1C1ADB5D-62B2-4A88-A962-14B0B3D457AA}"/>
@@ -608,7 +612,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3046C81A-A3E3-40B3-B854-3BEEB658E47E}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,4 +1765,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FD329D-454B-4A8C-B502-49D79ABB4242}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2026</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2027</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2028</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2029</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2031</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2032</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2033</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2034</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2035</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2036</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2037</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2038</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2039</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2040</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2041</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2042</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2043</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2044</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2045</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2046</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2047</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2048</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2049</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2050</v>
+      </c>
+      <c r="B28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9543D-A0BA-4EA8-AD19-AC049684DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D45AF8-D713-48A4-A76B-0177C0C2D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -261,11 +261,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{1C1ADB5D-62B2-4A88-A962-14B0B3D457AA}"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F817856D-ED2E-47B6-910A-06DE2A30A70F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.129</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1072,7 @@
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="A4">
         <v>2026</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="A5">
         <v>2027</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       <c r="A6">
         <v>2028</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       <c r="A7">
         <v>2029</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       <c r="A8">
         <v>2030</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>93020</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       <c r="A9">
         <v>2031</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       <c r="A10">
         <v>2032</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="A11">
         <v>2033</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="A12">
         <v>2034</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="A13">
         <v>2035</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       <c r="A14">
         <v>2036</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="A15">
         <v>2037</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="A16">
         <v>2038</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       <c r="A17">
         <v>2039</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       <c r="A18">
         <v>2040</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>61911.5</v>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       <c r="A19">
         <v>2041</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       <c r="A20">
         <v>2042</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="A21">
         <v>2043</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="A22">
         <v>2044</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       <c r="A23">
         <v>2045</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="A24">
         <v>2046</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       <c r="A25">
         <v>2047</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="A26">
         <v>2048</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       <c r="A27">
         <v>2049</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       <c r="A28">
         <v>2050</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>57655.199999999997</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FD329D-454B-4A8C-B502-49D79ABB4242}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1797,7 +1797,7 @@
       <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       <c r="A4">
         <v>2026</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="A5">
         <v>2027</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="A6">
         <v>2028</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="A7">
         <v>2029</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="A8">
         <v>2030</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>3.32E-2</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="A9">
         <v>2031</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="A10">
         <v>2032</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="A11">
         <v>2033</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="A12">
         <v>2034</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A13">
         <v>2035</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="A14">
         <v>2036</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="A15">
         <v>2037</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="A16">
         <v>2038</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       <c r="A17">
         <v>2039</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="A18">
         <v>2040</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="A19">
         <v>2041</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="A20">
         <v>2042</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>5.74E-2</v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       <c r="A21">
         <v>2043</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>5.96E-2</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="A22">
         <v>2044</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       <c r="A23">
         <v>2045</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="A24">
         <v>2046</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>6.6199999999999995E-2</v>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       <c r="A25">
         <v>2047</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="A26">
         <v>2048</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       <c r="A27">
         <v>2049</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>7.2800000000000004E-2</v>
       </c>
     </row>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D45AF8-D713-48A4-A76B-0177C0C2D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBB434-DB08-40A6-918F-509CDADF9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="eu_primary_cost" sheetId="4" r:id="rId4"/>
     <sheet name="eu_secondary_cost" sheetId="5" r:id="rId5"/>
     <sheet name="dcr" sheetId="6" r:id="rId6"/>
+    <sheet name="stocklvl" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Value</t>
   </si>
@@ -611,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F817856D-ED2E-47B6-910A-06DE2A30A70F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -1772,7 +1773,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B28" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,4 +2005,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143316B-9FC2-4B52-982D-1F4DD6859A8E}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>26229.707720000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
+        <v>26589.174669999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2026</v>
+      </c>
+      <c r="B4">
+        <v>60431.69513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2027</v>
+      </c>
+      <c r="B5">
+        <v>95314.195130000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2028</v>
+      </c>
+      <c r="B6">
+        <v>130196.6951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2029</v>
+      </c>
+      <c r="B7">
+        <v>165780.465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2030</v>
+      </c>
+      <c r="B8">
+        <v>179750.54879999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2031</v>
+      </c>
+      <c r="B9">
+        <v>195610.7611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2032</v>
+      </c>
+      <c r="B10">
+        <v>196499.72339999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2033</v>
+      </c>
+      <c r="B11">
+        <v>198853.9976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2034</v>
+      </c>
+      <c r="B12">
+        <v>202089.00579999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2035</v>
+      </c>
+      <c r="B13">
+        <v>164077.8836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2036</v>
+      </c>
+      <c r="B14">
+        <v>126654.49769999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2037</v>
+      </c>
+      <c r="B15">
+        <v>90701.344779999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2038</v>
+      </c>
+      <c r="B16">
+        <v>57298.538379999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2039</v>
+      </c>
+      <c r="B17">
+        <v>40938.322699999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2040</v>
+      </c>
+      <c r="B18">
+        <v>30788.296410000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2041</v>
+      </c>
+      <c r="B19">
+        <v>28368.054080000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2042</v>
+      </c>
+      <c r="B20">
+        <v>31250.81408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2043</v>
+      </c>
+      <c r="B21">
+        <v>34011.350160000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2044</v>
+      </c>
+      <c r="B22">
+        <v>35066.675019999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2045</v>
+      </c>
+      <c r="B23">
+        <v>33453.543590000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2046</v>
+      </c>
+      <c r="B24">
+        <v>25310.301890000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2047</v>
+      </c>
+      <c r="B25">
+        <v>11877.08452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2048</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2049</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2050</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Params.xlsx
+++ b/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBB434-DB08-40A6-918F-509CDADF9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3521E96-3EBD-43A3-BCF1-B39EA30EC8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6F44DE-C926-4774-9DF2-68D900517462}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1560,7 @@
         <v>2025</v>
       </c>
       <c r="B3">
-        <v>407790</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>2026</v>
       </c>
       <c r="B4">
-        <v>401673.15</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>2027</v>
       </c>
       <c r="B5">
-        <v>395648.05180000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>2028</v>
       </c>
       <c r="B6">
-        <v>389713.37070000003</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>2029</v>
       </c>
       <c r="B7">
-        <v>383868.06920000003</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>2030</v>
       </c>
       <c r="B8">
-        <v>378111.1482</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>2031</v>
       </c>
       <c r="B9">
-        <v>372441.52049999998</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>2032</v>
       </c>
       <c r="B10">
-        <v>366858.10369999998</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>2033</v>
       </c>
       <c r="B11">
-        <v>361359.81219999999</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>2034</v>
       </c>
       <c r="B12">
-        <v>355945.55099999998</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>2035</v>
       </c>
       <c r="B13">
-        <v>350614.47240000003</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>2036</v>
       </c>
       <c r="B14">
-        <v>345365.55530000001</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>2037</v>
       </c>
       <c r="B15">
-        <v>340197.72210000001</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>2038</v>
       </c>
       <c r="B16">
-        <v>335110.02130000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>2039</v>
       </c>
       <c r="B17">
-        <v>330101.42180000001</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>2040</v>
       </c>
       <c r="B18">
-        <v>325170.90000000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>2041</v>
       </c>
       <c r="B19">
-        <v>320317.53649999999</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>2042</v>
       </c>
       <c r="B20">
-        <v>315540.27350000001</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>2043</v>
       </c>
       <c r="B21">
-        <v>310838.15350000001</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>2044</v>
       </c>
       <c r="B22">
-        <v>306210.08149999997</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>2045</v>
       </c>
       <c r="B23">
-        <v>301655.05070000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>2046</v>
       </c>
       <c r="B24">
-        <v>297171.95140000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>2047</v>
       </c>
       <c r="B25">
-        <v>292759.79710000003</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>2048</v>
       </c>
       <c r="B26">
-        <v>288417.49819999997</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>2049</v>
       </c>
       <c r="B27">
-        <v>284144.08370000002</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>2050</v>
       </c>
       <c r="B28">
-        <v>279938.46230000001</v>
+        <v>414000</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143316B-9FC2-4B52-982D-1F4DD6859A8E}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
